--- a/csec/database/Caribbean History data.xlsx
+++ b/csec/database/Caribbean History data.xlsx
@@ -11,12 +11,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>CSEC Caribbean History June 2021 P032.pdf</t>
+  </si>
+  <si>
+    <t>13l8iREozb0PyxcGN2Vsl9kpPoz__wRLw</t>
+  </si>
+  <si>
+    <t>CSEC Caribbean History June 2017 P032.pdf</t>
+  </si>
+  <si>
+    <t>14a6zyWWfSZ4aL5hMh2YBlGryXmhSAfNj</t>
+  </si>
+  <si>
+    <t>CSEC Caribbean History June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1pwdV5mQhoNAoSMSo3qr7MBuVFIuojNiG</t>
+  </si>
+  <si>
+    <t>CSEC Caribbean History June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1UpH6LaZjyxoPpLOIYIX_NNZ81u1pEtWo</t>
+  </si>
+  <si>
+    <t>CSEC Caribbean History June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>1hwVT_ueNwZAPDaJwGdWOqNnDTQOXnZYz</t>
+  </si>
+  <si>
+    <t>CSEC Caribbean History June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>18YHpIkLwygS9mpFpv4Eu6Czmj1tuN2C0</t>
   </si>
   <si>
     <t>CSEC Caribbean History June 2009 P2.pdf</t>
@@ -617,6 +653,54 @@
         <v>49</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
